--- a/emptyFYP/assets/images/Samplefile/StudentSample.xlsx
+++ b/emptyFYP/assets/images/Samplefile/StudentSample.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1374347-B3D7-4B8A-BE83-8BB9F9EE6CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPDeploy/emptyFYP/assets/images/Samplefile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7951D44-6E33-3442-83F0-821B789D5893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>studentname</t>
   </si>
@@ -45,37 +50,52 @@
     <t>Cathy</t>
   </si>
   <si>
-    <t>sid33333</t>
-  </si>
-  <si>
-    <t>spw33333</t>
-  </si>
-  <si>
     <t>how to get abc</t>
   </si>
   <si>
     <t>Dorthy</t>
   </si>
   <si>
-    <t>sid44444</t>
-  </si>
-  <si>
-    <t>spw44444</t>
-  </si>
-  <si>
     <t>where is abc</t>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spw033333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spw044444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid033333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid044444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,19 +435,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,36 +462,46 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/emptyFYP/assets/images/Samplefile/StudentSample.xlsx
+++ b/emptyFYP/assets/images/Samplefile/StudentSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPDeploy/emptyFYP/assets/images/Samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7951D44-6E33-3442-83F0-821B789D5893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC58CA-D627-3D40-98AD-9B330F285D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,19 +63,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spw033333</t>
+    <t>spw30111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spw044444</t>
+    <t>spw30222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sid033333</t>
+    <t>sid30222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sid044444</t>
+    <t>sid30111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
